--- a/pcb/mx/manjaro_mx.xlsx
+++ b/pcb/mx/manjaro_mx.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaz\ghq\github.com\yuzucha16\kbd_mint\pcb\mx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaz\ghq\github.com\yuzucha16\kbd_manjaro\pcb\mx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD0B41DB-DFB0-4009-A5F0-CCAF246B5E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0291538F-7E86-430C-9FF7-C2D146689F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pos計算表" sheetId="2" r:id="rId1"/>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1281BFB-8161-4FC4-8C6D-37C4458A0804}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="B9">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1712,10 +1712,10 @@
         <v>15</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>4</v>
       </c>
       <c r="O9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P9">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1844,11 +1844,11 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:G15" si="2">$C$1*$A13+$C$5+B$9</f>
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="2"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
@@ -1860,22 +1860,22 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="9"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
         <f t="shared" ref="K13:P15" si="3">$C$1*$A13+$K$5+K$9</f>
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="3"/>
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1900,11 +1900,11 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="2"/>
-        <v>86.05</v>
+        <v>90.05</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="2"/>
-        <v>86.05</v>
+        <v>88.05</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
@@ -1916,22 +1916,22 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>78.05</v>
+        <v>80.05</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>79.05</v>
+        <v>82.05</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="9"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>79.05</v>
+        <v>82.05</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="3"/>
-        <v>78.05</v>
+        <v>80.05</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
@@ -1943,11 +1943,11 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="3"/>
-        <v>86.05</v>
+        <v>88.05</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="3"/>
-        <v>86.05</v>
+        <v>90.05</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1956,11 +1956,11 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="2"/>
-        <v>105.1</v>
+        <v>109.1</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="2"/>
-        <v>105.1</v>
+        <v>107.1</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
@@ -1972,22 +1972,22 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
-        <v>97.1</v>
+        <v>99.1</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>98.1</v>
+        <v>101.1</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>98.1</v>
+        <v>101.1</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="3"/>
-        <v>97.1</v>
+        <v>99.1</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
@@ -1999,11 +1999,11 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="3"/>
-        <v>105.1</v>
+        <v>107.1</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="3"/>
-        <v>105.1</v>
+        <v>109.1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2019,11 +2019,11 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2">
         <f>$C$1*$A16+$C$5+F$9</f>
-        <v>116.15</v>
+        <v>118.15</v>
       </c>
       <c r="G16" s="2">
         <f>$C$1*$A16+$C$5+G$9</f>
-        <v>117.15</v>
+        <v>120.15</v>
       </c>
       <c r="H16" s="2">
         <f>$C$1*$A16+$C$5+H$9</f>
@@ -2036,11 +2036,11 @@
       </c>
       <c r="K16" s="2">
         <f>$C$1*$A16+$K$5+K$9</f>
-        <v>117.15</v>
+        <v>120.15</v>
       </c>
       <c r="L16" s="2">
         <f>$C$1*$A16+$K$5+L$9</f>
-        <v>116.15</v>
+        <v>118.15</v>
       </c>
       <c r="M16" s="2">
         <f>$C$1*$A16+$K$5+M$9</f>
@@ -2193,11 +2193,11 @@
       </c>
       <c r="B22" s="2">
         <f>B13+$C$6</f>
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:G22" si="6">C13+$C$6</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="6"/>
@@ -2209,21 +2209,21 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="6"/>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="6"/>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H22" s="10"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
         <f>K13+$K$6</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" ref="L22:P22" si="7">L13+$K$6</f>
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="7"/>
@@ -2235,11 +2235,11 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="7"/>
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="B23" s="2">
         <f>B14+$C$6</f>
-        <v>93.05</v>
+        <v>97.05</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ref="C23:G23" si="8">C14+$C$6</f>
-        <v>93.05</v>
+        <v>95.05</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="8"/>
@@ -2264,21 +2264,21 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="8"/>
-        <v>85.05</v>
+        <v>87.05</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="8"/>
-        <v>86.05</v>
+        <v>89.05</v>
       </c>
       <c r="H23" s="10"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2">
         <f>K14+$K$6</f>
-        <v>86.05</v>
+        <v>89.05</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" ref="L23:P23" si="9">L14+$K$6</f>
-        <v>85.05</v>
+        <v>87.05</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="9"/>
@@ -2290,11 +2290,11 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="9"/>
-        <v>93.05</v>
+        <v>95.05</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="9"/>
-        <v>93.05</v>
+        <v>97.05</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2303,11 +2303,11 @@
       </c>
       <c r="B24" s="2">
         <f>B15+$C$6</f>
-        <v>112.1</v>
+        <v>116.1</v>
       </c>
       <c r="C24" s="2">
         <f>C15+$C$6</f>
-        <v>112.1</v>
+        <v>114.1</v>
       </c>
       <c r="D24" s="2">
         <f>D15+$C$6</f>
@@ -2319,21 +2319,21 @@
       </c>
       <c r="F24" s="2">
         <f>F15+$C$6</f>
-        <v>104.1</v>
+        <v>106.1</v>
       </c>
       <c r="G24" s="2">
         <f>G15+$C$6</f>
-        <v>105.1</v>
+        <v>108.1</v>
       </c>
       <c r="H24" s="10"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
         <f>K15+$K$6</f>
-        <v>105.1</v>
+        <v>108.1</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" ref="L24:P24" si="10">L15+$K$6</f>
-        <v>104.1</v>
+        <v>106.1</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="10"/>
@@ -2345,11 +2345,11 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="10"/>
-        <v>112.1</v>
+        <v>114.1</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="10"/>
-        <v>112.1</v>
+        <v>116.1</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2365,11 +2365,11 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2">
         <f t="shared" ref="F25:H25" si="11">F16+$C$6</f>
-        <v>123.15</v>
+        <v>125.15</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="11"/>
-        <v>124.15</v>
+        <v>127.15</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="11"/>
@@ -2381,11 +2381,11 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" ref="K25:N25" si="12">K16+$K$6</f>
-        <v>124.15</v>
+        <v>127.15</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="12"/>
-        <v>123.15</v>
+        <v>125.15</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="12"/>

--- a/pcb/mx/manjaro_mx.xlsx
+++ b/pcb/mx/manjaro_mx.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaz\ghq\github.com\yuzucha16\kbd_manjaro\pcb\mx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0291538F-7E86-430C-9FF7-C2D146689F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214DB960-F992-4DFA-AC1A-D910386B9B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1281BFB-8161-4FC4-8C6D-37C4458A0804}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1688,10 +1688,10 @@
     </row>
     <row r="9" spans="1:16">
       <c r="B9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>4</v>
@@ -1700,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -1712,10 +1712,10 @@
         <v>15</v>
       </c>
       <c r="K9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -1724,10 +1724,10 @@
         <v>4</v>
       </c>
       <c r="O9">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P9">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1844,11 +1844,11 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ref="B13:G15" si="2">$C$1*$A13+$C$5+B$9</f>
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="2"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2">
         <f t="shared" si="2"/>
@@ -1860,22 +1860,22 @@
       </c>
       <c r="F13" s="2">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H13" s="10"/>
       <c r="I13" s="9"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2">
         <f t="shared" ref="K13:P15" si="3">$C$1*$A13+$K$5+K$9</f>
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L13" s="2">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M13" s="2">
         <f t="shared" si="3"/>
@@ -1887,11 +1887,11 @@
       </c>
       <c r="O13" s="2">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1900,11 +1900,11 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" si="2"/>
-        <v>90.05</v>
+        <v>89.05</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="2"/>
-        <v>88.05</v>
+        <v>87.05</v>
       </c>
       <c r="D14" s="2">
         <f t="shared" si="2"/>
@@ -1916,22 +1916,22 @@
       </c>
       <c r="F14" s="2">
         <f t="shared" si="2"/>
-        <v>80.05</v>
+        <v>79.05</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="2"/>
-        <v>82.05</v>
+        <v>81.05</v>
       </c>
       <c r="H14" s="10"/>
       <c r="I14" s="9"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>82.05</v>
+        <v>81.05</v>
       </c>
       <c r="L14" s="2">
         <f t="shared" si="3"/>
-        <v>80.05</v>
+        <v>79.05</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="3"/>
@@ -1943,11 +1943,11 @@
       </c>
       <c r="O14" s="2">
         <f t="shared" si="3"/>
-        <v>88.05</v>
+        <v>87.05</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" si="3"/>
-        <v>90.05</v>
+        <v>89.05</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1956,11 +1956,11 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" si="2"/>
-        <v>109.1</v>
+        <v>108.1</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="2"/>
-        <v>107.1</v>
+        <v>106.1</v>
       </c>
       <c r="D15" s="2">
         <f t="shared" si="2"/>
@@ -1972,22 +1972,22 @@
       </c>
       <c r="F15" s="2">
         <f t="shared" si="2"/>
-        <v>99.1</v>
+        <v>98.1</v>
       </c>
       <c r="G15" s="2">
         <f t="shared" si="2"/>
-        <v>101.1</v>
+        <v>100.1</v>
       </c>
       <c r="H15" s="10"/>
       <c r="I15" s="9"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>101.1</v>
+        <v>100.1</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" si="3"/>
-        <v>99.1</v>
+        <v>98.1</v>
       </c>
       <c r="M15" s="2">
         <f t="shared" si="3"/>
@@ -1999,11 +1999,11 @@
       </c>
       <c r="O15" s="2">
         <f t="shared" si="3"/>
-        <v>107.1</v>
+        <v>106.1</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" si="3"/>
-        <v>109.1</v>
+        <v>108.1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2019,11 +2019,11 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2">
         <f>$C$1*$A16+$C$5+F$9</f>
-        <v>118.15</v>
+        <v>117.15</v>
       </c>
       <c r="G16" s="2">
         <f>$C$1*$A16+$C$5+G$9</f>
-        <v>120.15</v>
+        <v>119.15</v>
       </c>
       <c r="H16" s="2">
         <f>$C$1*$A16+$C$5+H$9</f>
@@ -2036,11 +2036,11 @@
       </c>
       <c r="K16" s="2">
         <f>$C$1*$A16+$K$5+K$9</f>
-        <v>120.15</v>
+        <v>119.15</v>
       </c>
       <c r="L16" s="2">
         <f>$C$1*$A16+$K$5+L$9</f>
-        <v>118.15</v>
+        <v>117.15</v>
       </c>
       <c r="M16" s="2">
         <f>$C$1*$A16+$K$5+M$9</f>
@@ -2193,11 +2193,11 @@
       </c>
       <c r="B22" s="2">
         <f>B13+$C$6</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" ref="C22:G22" si="6">C13+$C$6</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="6"/>
@@ -2209,21 +2209,21 @@
       </c>
       <c r="F22" s="2">
         <f t="shared" si="6"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" si="6"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H22" s="10"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2">
         <f>K13+$K$6</f>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" ref="L22:P22" si="7">L13+$K$6</f>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="M22" s="2">
         <f t="shared" si="7"/>
@@ -2235,11 +2235,11 @@
       </c>
       <c r="O22" s="2">
         <f t="shared" si="7"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" si="7"/>
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="B23" s="2">
         <f>B14+$C$6</f>
-        <v>97.05</v>
+        <v>96.05</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" ref="C23:G23" si="8">C14+$C$6</f>
-        <v>95.05</v>
+        <v>94.05</v>
       </c>
       <c r="D23" s="2">
         <f t="shared" si="8"/>
@@ -2264,21 +2264,21 @@
       </c>
       <c r="F23" s="2">
         <f t="shared" si="8"/>
-        <v>87.05</v>
+        <v>86.05</v>
       </c>
       <c r="G23" s="2">
         <f t="shared" si="8"/>
-        <v>89.05</v>
+        <v>88.05</v>
       </c>
       <c r="H23" s="10"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2">
         <f>K14+$K$6</f>
-        <v>89.05</v>
+        <v>88.05</v>
       </c>
       <c r="L23" s="2">
         <f t="shared" ref="L23:P23" si="9">L14+$K$6</f>
-        <v>87.05</v>
+        <v>86.05</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="9"/>
@@ -2290,11 +2290,11 @@
       </c>
       <c r="O23" s="2">
         <f t="shared" si="9"/>
-        <v>95.05</v>
+        <v>94.05</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" si="9"/>
-        <v>97.05</v>
+        <v>96.05</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2303,11 +2303,11 @@
       </c>
       <c r="B24" s="2">
         <f>B15+$C$6</f>
-        <v>116.1</v>
+        <v>115.1</v>
       </c>
       <c r="C24" s="2">
         <f>C15+$C$6</f>
-        <v>114.1</v>
+        <v>113.1</v>
       </c>
       <c r="D24" s="2">
         <f>D15+$C$6</f>
@@ -2319,21 +2319,21 @@
       </c>
       <c r="F24" s="2">
         <f>F15+$C$6</f>
-        <v>106.1</v>
+        <v>105.1</v>
       </c>
       <c r="G24" s="2">
         <f>G15+$C$6</f>
-        <v>108.1</v>
+        <v>107.1</v>
       </c>
       <c r="H24" s="10"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
         <f>K15+$K$6</f>
-        <v>108.1</v>
+        <v>107.1</v>
       </c>
       <c r="L24" s="2">
         <f t="shared" ref="L24:P24" si="10">L15+$K$6</f>
-        <v>106.1</v>
+        <v>105.1</v>
       </c>
       <c r="M24" s="2">
         <f t="shared" si="10"/>
@@ -2345,11 +2345,11 @@
       </c>
       <c r="O24" s="2">
         <f t="shared" si="10"/>
-        <v>114.1</v>
+        <v>113.1</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" si="10"/>
-        <v>116.1</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2365,11 +2365,11 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2">
         <f t="shared" ref="F25:H25" si="11">F16+$C$6</f>
-        <v>125.15</v>
+        <v>124.15</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" si="11"/>
-        <v>127.15</v>
+        <v>126.15</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" si="11"/>
@@ -2381,11 +2381,11 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" ref="K25:N25" si="12">K16+$K$6</f>
-        <v>127.15</v>
+        <v>126.15</v>
       </c>
       <c r="L25" s="2">
         <f t="shared" si="12"/>
-        <v>125.15</v>
+        <v>124.15</v>
       </c>
       <c r="M25" s="2">
         <f t="shared" si="12"/>
